--- a/data_year/zb/国民经济核算/投入产出直接消耗系数/采矿业投入产出直接消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出直接消耗系数/采矿业投入产出直接消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,385 +558,306 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.527095035884617</v>
+        <v>0.547864802229341</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01189494267306</v>
+        <v>0.010967232624827</v>
       </c>
       <c r="E2" t="n">
-        <v>0.024172251785146</v>
+        <v>0.020566642879947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002677340735366</v>
+        <v>0.003339953005028</v>
       </c>
       <c r="G2" t="n">
-        <v>0.166655201637402</v>
+        <v>0.154583652286756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03829612961557</v>
+        <v>0.039728081295681</v>
       </c>
       <c r="I2" t="n">
-        <v>0.051379702173212</v>
+        <v>0.04725728022666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.472904964115383</v>
+        <v>0.452135197770659</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000925774560558</v>
+        <v>0.000872189855071</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003820830544666</v>
+        <v>0.004562623931816</v>
       </c>
       <c r="M2" t="n">
-        <v>0.022344948259405</v>
+        <v>0.021261193115224</v>
       </c>
       <c r="N2" t="n">
-        <v>0.096306082983193</v>
+        <v>0.099717289941526</v>
       </c>
       <c r="O2" t="n">
-        <v>0.037563565374078</v>
+        <v>0.031879170217072</v>
       </c>
       <c r="P2" t="n">
-        <v>0.086232539439222</v>
+        <v>0.10812766378183</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08190045138431699</v>
+        <v>0.07419490841453701</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004678354167684</v>
+        <v>0.004020434289088</v>
       </c>
       <c r="S2" t="n">
-        <v>0.168637520865547</v>
+        <v>0.142166601475413</v>
       </c>
       <c r="T2" t="n">
-        <v>0.043897411900287</v>
+        <v>0.044396687259934</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07498954339717499</v>
+        <v>0.115916452391954</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05343907977883</v>
+        <v>0.048449694043292</v>
       </c>
       <c r="W2" t="n">
-        <v>0.014922589953075</v>
+        <v>0.01344326707759</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01305351561568</v>
+        <v>0.012648589539624</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.002212223156528</v>
+        <v>0.00190039234713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.547864802229341</v>
+        <v>0.510181557091265</v>
       </c>
       <c r="D3" t="n">
-        <v>0.010967232624827</v>
+        <v>0.012014089999637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.020566642879947</v>
+        <v>0.018385745005496</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003339953005028</v>
+        <v>0.000466490842416</v>
       </c>
       <c r="G3" t="n">
-        <v>0.154583652286756</v>
+        <v>0.194754771688493</v>
       </c>
       <c r="H3" t="n">
-        <v>0.039728081295681</v>
+        <v>0.035566461445695</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04725728022666</v>
+        <v>0.051196944908002</v>
       </c>
       <c r="J3" t="n">
-        <v>0.452135197770659</v>
+        <v>0.489818442908735</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000872189855071</v>
+        <v>0.002339684032038</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004562623931816</v>
+        <v>0.017396851292261</v>
       </c>
       <c r="M3" t="n">
-        <v>0.021261193115224</v>
+        <v>0.017794707279919</v>
       </c>
       <c r="N3" t="n">
-        <v>0.099717289941526</v>
+        <v>0.060326326247189</v>
       </c>
       <c r="O3" t="n">
-        <v>0.031879170217072</v>
+        <v>0.028780669309625</v>
       </c>
       <c r="P3" t="n">
-        <v>0.10812766378183</v>
+        <v>0.115153933476512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.07419490841453701</v>
+        <v>0.058375758339813</v>
       </c>
       <c r="R3" t="n">
-        <v>0.004020434289088</v>
+        <v>0.003035427809978</v>
       </c>
       <c r="S3" t="n">
-        <v>0.142166601475413</v>
+        <v>0.128712792835728</v>
       </c>
       <c r="T3" t="n">
-        <v>0.044396687259934</v>
+        <v>0.025902007649491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.115916452391954</v>
+        <v>0.133587348730131</v>
       </c>
       <c r="V3" t="n">
-        <v>0.048449694043292</v>
+        <v>0.05122095082125</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01344326707759</v>
+        <v>0.034400074387033</v>
       </c>
       <c r="X3" t="n">
-        <v>0.012648589539624</v>
+        <v>0.006229277659361</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00190039234713</v>
+        <v>0.004359686239934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.510181557091265</v>
+        <v>0.66133752317612</v>
       </c>
       <c r="D4" t="n">
-        <v>0.012014089999637</v>
+        <v>0.017466650913401</v>
       </c>
       <c r="E4" t="n">
-        <v>0.018385745005496</v>
+        <v>0.028576218537211</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000466490842416</v>
+        <v>0.000568483537849</v>
       </c>
       <c r="G4" t="n">
-        <v>0.194754771688493</v>
+        <v>0.139511089068868</v>
       </c>
       <c r="H4" t="n">
-        <v>0.035566461445695</v>
+        <v>0.04570237287667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.051196944908002</v>
+        <v>0.059693573582608</v>
       </c>
       <c r="J4" t="n">
-        <v>0.489818442908735</v>
+        <v>0.33866247682388</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002339684032038</v>
+        <v>0.003449810086969</v>
       </c>
       <c r="L4" t="n">
-        <v>0.017396851292261</v>
+        <v>0.035941817396342</v>
       </c>
       <c r="M4" t="n">
-        <v>0.017794707279919</v>
+        <v>0.030338167059852</v>
       </c>
       <c r="N4" t="n">
-        <v>0.060326326247189</v>
+        <v>0.09125791493912599</v>
       </c>
       <c r="O4" t="n">
-        <v>0.028780669309625</v>
+        <v>0.031954510704973</v>
       </c>
       <c r="P4" t="n">
-        <v>0.115153933476512</v>
+        <v>0.085428326592093</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.058375758339813</v>
+        <v>0.061272345556106</v>
       </c>
       <c r="R4" t="n">
-        <v>0.003035427809978</v>
+        <v>0.005468153223784</v>
       </c>
       <c r="S4" t="n">
-        <v>0.128712792835728</v>
+        <v>0.054029487580312</v>
       </c>
       <c r="T4" t="n">
-        <v>0.025902007649491</v>
+        <v>0.038766629847629</v>
       </c>
       <c r="U4" t="n">
-        <v>0.133587348730131</v>
+        <v>0.148156329522398</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05122095082125</v>
+        <v>0.05301104333332</v>
       </c>
       <c r="W4" t="n">
-        <v>0.034400074387033</v>
+        <v>0.053858608501274</v>
       </c>
       <c r="X4" t="n">
-        <v>0.006229277659361</v>
+        <v>0.008009603542514</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.004359686239934</v>
+        <v>0.007538863596702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.66133752317612</v>
+        <v>0.477745668091275</v>
       </c>
       <c r="D5" t="n">
-        <v>0.017466650913401</v>
+        <v>0.001839875364481</v>
       </c>
       <c r="E5" t="n">
-        <v>0.028576218537211</v>
+        <v>0.035993370655661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000568483537849</v>
+        <v>0.00045681418808</v>
       </c>
       <c r="G5" t="n">
-        <v>0.139511089068868</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.04570237287667</v>
-      </c>
+        <v>0.18362163448657</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.059693573582608</v>
+        <v>0.079826338472058</v>
       </c>
       <c r="J5" t="n">
-        <v>0.33866247682388</v>
+        <v>0.5222543319087249</v>
       </c>
       <c r="K5" t="n">
-        <v>0.003449810086969</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.035941817396342</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.030338167059852</v>
-      </c>
+        <v>0.00038260359431</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.09125791493912599</v>
+        <v>0.055254665556348</v>
       </c>
       <c r="O5" t="n">
-        <v>0.031954510704973</v>
+        <v>0.06268309630261799</v>
       </c>
       <c r="P5" t="n">
-        <v>0.085428326592093</v>
+        <v>0.16609029032925</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.061272345556106</v>
+        <v>0.04819341959908</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005468153223784</v>
+        <v>0.004807737725751</v>
       </c>
       <c r="S5" t="n">
-        <v>0.054029487580312</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.038766629847629</v>
-      </c>
+        <v>0.092716068620847</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.148156329522398</v>
+        <v>0.128188665838194</v>
       </c>
       <c r="V5" t="n">
-        <v>0.05301104333332</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.053858608501274</v>
-      </c>
+        <v>0.037618936479946</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>0.008009603542514</v>
+        <v>0.004970942844271</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.007538863596702</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.477745668091275</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001839875364481</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.035993370655661</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.00045681418808</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.18362163448657</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.079826338472058</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5222543319087249</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.00038260359431</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.055254665556348</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.06268309630261799</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.16609029032925</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.04819341959908</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.004807737725751</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.092716068620847</v>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
-        <v>0.128188665838194</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.037618936479946</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="n">
-        <v>0.004970942844271</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0.003214967058046</v>
       </c>
     </row>
